--- a/TestData/Contact_Form data.xlsx
+++ b/TestData/Contact_Form data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
   <si>
     <t>India</t>
   </si>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -268,6 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,7 +698,7 @@
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s" s="27">
+      <c r="M2" t="s" s="35">
         <v>25</v>
       </c>
       <c r="N2" t="s" s="0">
@@ -732,7 +742,7 @@
       <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s" s="28">
+      <c r="M3" t="s" s="36">
         <v>25</v>
       </c>
       <c r="N3" t="s" s="0">
@@ -776,7 +786,7 @@
       <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s" s="29">
+      <c r="M4" t="s" s="37">
         <v>25</v>
       </c>
       <c r="N4" t="s" s="0">
@@ -820,7 +830,7 @@
       <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s" s="25">
+      <c r="M5" t="s" s="38">
         <v>25</v>
       </c>
       <c r="N5" t="s" s="0">
@@ -864,7 +874,7 @@
       <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s" s="26">
+      <c r="M6" t="s" s="39">
         <v>29</v>
       </c>
       <c r="N6" t="s" s="0">

--- a/TestData/Contact_Form data.xlsx
+++ b/TestData/Contact_Form data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>India</t>
   </si>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -268,6 +268,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -698,7 +718,7 @@
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s" s="35">
+      <c r="M2" t="s" s="55">
         <v>25</v>
       </c>
       <c r="N2" t="s" s="0">
@@ -742,7 +762,7 @@
       <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s" s="36">
+      <c r="M3" t="s" s="56">
         <v>25</v>
       </c>
       <c r="N3" t="s" s="0">
@@ -786,7 +806,7 @@
       <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s" s="37">
+      <c r="M4" t="s" s="57">
         <v>25</v>
       </c>
       <c r="N4" t="s" s="0">
@@ -830,7 +850,7 @@
       <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s" s="38">
+      <c r="M5" t="s" s="58">
         <v>25</v>
       </c>
       <c r="N5" t="s" s="0">
@@ -874,7 +894,7 @@
       <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s" s="39">
+      <c r="M6" t="s" s="59">
         <v>29</v>
       </c>
       <c r="N6" t="s" s="0">
